--- a/Selenium_Batch_10.30/Testdata.xlsx
+++ b/Selenium_Batch_10.30/Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\git\WCSE13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\git\repository\Selenium_Batch_10.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06F13D-CFFF-4E61-81B1-3E3DB54BA5FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F164B7B-7F95-4A06-B5E6-6CEF84E95774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" xr2:uid="{ADED2972-2149-4995-A20D-7B771AFF364F}"/>
   </bookViews>
